--- a/data/trans_dic/DCD_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Clase-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.210590423814232</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1474334299473822</v>
+        <v>0.1474334299473821</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0702265896668155</v>
+        <v>0.06958103715349732</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1785920720716849</v>
+        <v>0.1806859441382969</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1279510848191748</v>
+        <v>0.1252970862751747</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1169192486392934</v>
+        <v>0.1151288503214618</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2464365634408988</v>
+        <v>0.2431223483756406</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1695625071284013</v>
+        <v>0.1684684505518691</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07763933245717022</v>
+        <v>0.07654278460159378</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2096638193912375</v>
+        <v>0.2072601043065122</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1461217828394936</v>
+        <v>0.1465628051426927</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1293107996408124</v>
+        <v>0.1292772894770388</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2830250839387207</v>
+        <v>0.2836639014157513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1902430276228973</v>
+        <v>0.1910407952858994</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.1597788828368251</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3413499285534948</v>
+        <v>0.3413499285534949</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2114305490985293</v>
+        <v>0.2114305490985294</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1291647676467178</v>
+        <v>0.1299716833725181</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2840054280162934</v>
+        <v>0.287702772571215</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.183744183355471</v>
+        <v>0.1814407175706997</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1965914923047789</v>
+        <v>0.1947689158499799</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3999021322115777</v>
+        <v>0.4042017439128021</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2413993864213121</v>
+        <v>0.2409989392451065</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1555394120170011</v>
+        <v>0.1557053184437943</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2291864529147797</v>
+        <v>0.2290307028467916</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.195547549498275</v>
+        <v>0.1931495811839777</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2011100821493806</v>
+        <v>0.1999662917099585</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2803650929761597</v>
+        <v>0.2808829955159019</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2296597411189999</v>
+        <v>0.2281411022094477</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1746536088793812</v>
+        <v>0.1746536088793811</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.3570271528198958</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1449044285139345</v>
+        <v>0.1456301216098591</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3273104372341459</v>
+        <v>0.3277307452064808</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2621851221540237</v>
+        <v>0.2654574996337538</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2080714245726145</v>
+        <v>0.2073481624460678</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3830098607157258</v>
+        <v>0.3834043117267852</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3036201970868739</v>
+        <v>0.3053113732110393</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.0318111589357617</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.2877900663979449</v>
+        <v>0.287790066397945</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.2316413754658098</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01429504931363926</v>
+        <v>0.01652228988405672</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.259115953524851</v>
+        <v>0.2605390648676789</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2058276172265018</v>
+        <v>0.2076173184411204</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06253875035136401</v>
+        <v>0.06673280830851269</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3184186471507387</v>
+        <v>0.3176318670430158</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.255907891620582</v>
+        <v>0.2578409271977609</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1286257018059098</v>
+        <v>0.1282833253222298</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2709685696036686</v>
+        <v>0.2712696538190768</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2038984629085102</v>
+        <v>0.2050972413405843</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1521710994357888</v>
+        <v>0.1523363785220015</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2960318155510975</v>
+        <v>0.2965180710316965</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2220365737578263</v>
+        <v>0.2230799948808282</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>38668</v>
+        <v>38313</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>87226</v>
+        <v>88249</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>132945</v>
+        <v>130187</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>64378</v>
+        <v>63392</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>120362</v>
+        <v>118744</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>176180</v>
+        <v>175044</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>37516</v>
+        <v>36986</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>88718</v>
+        <v>87701</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>132438</v>
+        <v>132838</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>62485</v>
+        <v>62468</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>119760</v>
+        <v>120030</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>172428</v>
+        <v>173151</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>60916</v>
+        <v>61296</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>53250</v>
+        <v>53943</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>121107</v>
+        <v>119589</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>92715</v>
+        <v>91855</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>74980</v>
+        <v>75787</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>159109</v>
+        <v>158845</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>176046</v>
+        <v>176234</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>197378</v>
+        <v>197244</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>389737</v>
+        <v>384958</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>227625</v>
+        <v>226330</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>241454</v>
+        <v>241900</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>457724</v>
+        <v>454698</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>82300</v>
+        <v>82713</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>271946</v>
+        <v>272295</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>366748</v>
+        <v>371326</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>118177</v>
+        <v>117766</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>318224</v>
+        <v>318551</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>424708</v>
+        <v>427074</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3391</v>
+        <v>3920</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>218767</v>
+        <v>219968</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>222604</v>
+        <v>224540</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14836</v>
+        <v>15831</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>268835</v>
+        <v>268171</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>276767</v>
+        <v>278857</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>442791</v>
+        <v>441612</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>985077</v>
+        <v>986172</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1443167</v>
+        <v>1451651</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>523845</v>
+        <v>524414</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1076192</v>
+        <v>1077960</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1571546</v>
+        <v>1578931</v>
       </c>
     </row>
     <row r="32">
